--- a/data/income_statement/3digits/total/241_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/241_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>241-Manufacture of basic iron and steel and of ferro-alloys</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>241-Manufacture of basic iron and steel and of ferro-alloys</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>31320942.47165</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>40654246.09373001</v>
+        <v>40654246.09373</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>58438398.73882</v>
+        <v>60623676.57506</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>59981578.84224</v>
+        <v>63929194.79633</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>65134084.28855</v>
+        <v>65580939.43438</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>67708924.35570998</v>
+        <v>74446382.89933001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>67587032.07014</v>
+        <v>72845618.50259998</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>75127869.81285001</v>
+        <v>76059530.04452001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>120929949.80475</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>171388014.57753</v>
+        <v>171400363.16964</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>162806857.8409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>162988466.55528</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>207129048.423</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>19022158.50192</v>
@@ -995,37 +906,42 @@
         <v>26842345.99599</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>39584085.46586999</v>
+        <v>41339589.98508</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>41255576.00718</v>
+        <v>43529974.34744</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>46181868.07621</v>
+        <v>46626101.10648</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>49172819.05644001</v>
+        <v>55068052.76469001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>51303173.0685</v>
+        <v>55549673.28955001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>57381539.65385</v>
+        <v>58251757.95449</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>91924768.41453998</v>
+        <v>91924768.41453999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>116742632.70249</v>
+        <v>116754549.83036</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>108083792.95863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>108243019.88862</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>147865053.379</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>12026126.93983</v>
@@ -1034,37 +950,42 @@
         <v>13228974.92293</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>17931750.46505</v>
+        <v>18298398.09905</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>18018766.95596</v>
+        <v>19691778.85182</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>18240287.95865</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>18032846.78992</v>
+        <v>18680342.91318</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>15426337.23079</v>
+        <v>16381530.72579</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>16684888.61759</v>
+        <v>16744437.3417</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>27730697.83925</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>52889749.11417999</v>
+        <v>52890176.0964</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>53266019.20853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>53287872.29771</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>57213067.574</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>272657.0299</v>
@@ -1073,37 +994,42 @@
         <v>582925.17481</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>922562.8079</v>
+        <v>985688.49093</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>707235.8790999998</v>
+        <v>707441.59707</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>711928.25369</v>
+        <v>714550.36925</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>503258.5093499999</v>
+        <v>697987.22146</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>857521.77085</v>
+        <v>914414.48726</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1061441.54141</v>
+        <v>1063334.74833</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1274483.55096</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1755632.76086</v>
+        <v>1755637.24288</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1457045.67374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1457574.36895</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2050927.47</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>186394.39174</v>
@@ -1112,100 +1038,110 @@
         <v>220770.85658</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>273321.93308</v>
+        <v>314718.45839</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>212363.99764</v>
+        <v>268987.54935</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>216696.42398</v>
+        <v>217204.48898</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>484182.55336</v>
+        <v>489226.65359</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>362665.60462</v>
+        <v>389946.64175</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>489689.80836</v>
+        <v>495512.70589</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>625991.8676</v>
+        <v>625991.8675999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1330033.80594</v>
+        <v>1330034.60794</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>985051.13163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>986685.3510199999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>966486.2879999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>65390.25997</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>70184.45788</v>
+        <v>70184.45788000002</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>101194.90721</v>
+        <v>106734.42041</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>68570.30796000001</v>
+        <v>75321.15760000001</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>74584.95342999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>270935.38151</v>
+        <v>271572.92759</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>141630.94415</v>
+        <v>160667.37817</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>156420.70841</v>
+        <v>157326.22867</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>244322.14801</v>
+        <v>244322.1480100001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>422222.2373</v>
+        <v>422223.0393</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>284614.8648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>286230.01514</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>301004.832</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>34149.63341</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>58032.27633</v>
+        <v>58032.27633000001</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>78114.17115000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>84680.04328999999</v>
+        <v>89675.22457999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>59621.01055000001</v>
+        <v>59621.01055</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>118318.47738</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>126281.46623</v>
+        <v>127589.83137</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>164936.8636</v>
+        <v>164984.60077</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>180192.40487</v>
@@ -1214,130 +1150,150 @@
         <v>519140.57591</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>388526.87476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>388529.68167</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>330537.367</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>86854.49836000001</v>
+        <v>86854.49836</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>92554.12236999998</v>
+        <v>92554.12237000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>94012.85472</v>
+        <v>129869.86683</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>59113.64639</v>
+        <v>103991.16717</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>82490.46000000001</v>
+        <v>82998.52499999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>94928.69447</v>
+        <v>99335.24862</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>94753.19424</v>
+        <v>101689.43221</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>168332.23635</v>
+        <v>173201.87645</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>201477.31472</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>388670.9927299999</v>
+        <v>388670.99273</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>311909.39207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>311925.6542099999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>334944.089</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>31134548.07991</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>40433475.23715001</v>
+        <v>40433475.23715</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>58165076.80574</v>
+        <v>60308958.11667001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>59769214.84460001</v>
+        <v>63660207.24698</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>64917387.86457</v>
+        <v>65363734.94539999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>67224741.80235</v>
+        <v>73957156.24574001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>67224366.46551999</v>
+        <v>72455671.86085001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>74638180.00449</v>
+        <v>75564017.33863001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>120303957.93715</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>170057980.77159</v>
+        <v>170070328.5617</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>161821806.70927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>162001781.20426</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>206162562.135</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>30984784.64129</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>37940877.02214</v>
+        <v>37940877.02213999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>53443935.97197</v>
+        <v>55365153.4021</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>57411630.22269</v>
+        <v>61232981.89457001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>59682044.04861999</v>
+        <v>60135064.45521</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>62451140.77497999</v>
+        <v>67906293.5398</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>61201584.39374</v>
+        <v>66079065.49713001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>64795232.05774</v>
+        <v>65666593.12561999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>102832657.32997</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>142474903.76173</v>
+        <v>142486563.41599</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>148925033.23224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>149086047.31397</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>178903966.008</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>28230585.57962</v>
@@ -1346,37 +1302,42 @@
         <v>34052747.39028</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>47087204.33631</v>
+        <v>48930683.07064</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>50811548.18259</v>
+        <v>54549789.64398</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>53830214.85195</v>
+        <v>54242920.97812</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>54678980.22596</v>
+        <v>59902743.32382001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>53775646.8172</v>
+        <v>58432804.16546</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>57163429.38928</v>
+        <v>58028353.48188</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>89869684.14667</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>126971865.59397</v>
+        <v>126972449.63823</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>132282177.34245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>132366003.33638</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>155870602.69</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2046165.40474</v>
@@ -1385,37 +1346,42 @@
         <v>3042301.47783</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>5064758.38003</v>
+        <v>5067324.291449999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5197436.61042</v>
+        <v>5204608.41684</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4620056.94775</v>
+        <v>4646473.69123</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5927781.772360001</v>
+        <v>6031686.546100002</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5929384.018459999</v>
+        <v>6044346.68186</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6057158.399659999</v>
+        <v>6057516.516720001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>10699482.9938</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>13085446.24854</v>
+        <v>13094516.56635</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>13820285.66908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13894620.06806</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>19764364.381</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>482583.43211</v>
@@ -1427,34 +1393,39 @@
         <v>410407.4296</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>541572.54359</v>
+        <v>551105.69016</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>631032.0441899999</v>
+        <v>633003.67583</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>893226.3810500001</v>
+        <v>908144.3933100001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>862841.4644799998</v>
+        <v>950026.4996699999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>832836.0590199999</v>
+        <v>833347.79345</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>956273.91594</v>
+        <v>956273.9159400001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1221379.3706</v>
+        <v>1223384.66279</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1528810.10786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1531663.79668</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1655846.065</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>225450.22482</v>
@@ -1463,22 +1434,22 @@
         <v>464993.49236</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>881565.8260300001</v>
+        <v>956738.61041</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>861072.8860899999</v>
+        <v>927478.14359</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>600740.20473</v>
+        <v>612666.11003</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>951152.3956100001</v>
+        <v>1063719.27657</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>633712.0936</v>
+        <v>651888.15014</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>741808.2097799999</v>
+        <v>747375.3335699999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1307216.27356</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>1293760.11285</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1613152.872</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>149763.43862</v>
@@ -1502,37 +1478,42 @@
         <v>2492598.21501</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4721140.83377</v>
+        <v>4943804.714570001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2357584.62191</v>
+        <v>2427225.35241</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5235343.81595</v>
+        <v>5228670.49019</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4773601.027369999</v>
+        <v>6050862.70594</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6022782.07178</v>
+        <v>6376606.363719999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>9842947.94675</v>
+        <v>9897424.21301</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>17471300.60718</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>27583077.00986</v>
+        <v>27583765.14571</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>12896773.47703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12915733.89029</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>27258596.127</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1271044.83877</v>
@@ -1541,37 +1522,42 @@
         <v>1469143.89802</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1673445.57633</v>
+        <v>1720327.54433</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1913103.43734</v>
+        <v>1980866.72728</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2166814.83926</v>
+        <v>2170221.50446</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2365383.30598</v>
+        <v>2505124.1856</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2711915.861899999</v>
+        <v>2849224.24797</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3379388.48816</v>
+        <v>3398694.72383</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4216636.39126</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5060769.391950001</v>
+        <v>5062811.3045</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5495227.303580001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5507635.527789999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6315300.46</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4587.59722</v>
@@ -1580,16 +1566,16 @@
         <v>4173.22762</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4201.82282</v>
+        <v>5241.21327</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4346.90438</v>
+        <v>5585.37702</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>7852.492449999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8353.819289999999</v>
+        <v>9167.561089999999</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>3124.09881</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>16956.56308</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>15130.928</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>773529.69615</v>
@@ -1619,76 +1610,86 @@
         <v>833918.0518400001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>976431.4056700001</v>
+        <v>981189.1451699999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1173407.79269</v>
+        <v>1194298.15563</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1302483.88713</v>
+        <v>1302509.95077</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1432108.83314</v>
+        <v>1492171.38815</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1679311.65938</v>
+        <v>1753638.83922</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2138096.86254</v>
+        <v>2144103.78407</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2519638.82756</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3082644.79319</v>
+        <v>3082785.53852</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3367255.57009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3369198.94638</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4033296.312</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>492927.5454000001</v>
+        <v>492927.5453999999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>631052.61856</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>692812.3478400001</v>
+        <v>733897.1858900001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>735348.7402700001</v>
+        <v>780983.19463</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>856478.45968</v>
+        <v>859859.0612399998</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>924920.65355</v>
+        <v>1003785.23636</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1029480.10371</v>
+        <v>1092461.30994</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1232814.6825</v>
+        <v>1246113.99664</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1687618.39941</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1967601.18641</v>
+        <v>1969502.35363</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2111015.17041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2121480.01833</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2266873.22</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-1121281.40015</v>
@@ -1697,76 +1698,86 @@
         <v>1023454.31699</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3047695.25744</v>
+        <v>3223477.17024</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>444481.18457</v>
+        <v>446358.62513</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3068528.97669</v>
+        <v>3058448.98573</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2408217.72139</v>
+        <v>3545738.52034</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3310866.20988</v>
+        <v>3527382.11575</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6463559.45859</v>
+        <v>6498729.48918</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>13254664.21592</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>22522307.61791001</v>
+        <v>22520953.84121</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7401546.173450001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7408098.3625</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>20943295.667</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>2850233.06198</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3348114.657939999</v>
+        <v>3348114.65794</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4188418.37332</v>
+        <v>4443127.36538</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3969657.06306</v>
+        <v>4210755.72727</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4913958.296250001</v>
+        <v>4931451.62463</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8007517.324770001</v>
+        <v>9311795.361889999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11922808.35493</v>
+        <v>13263993.72897</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>15139868.45046</v>
+        <v>15179936.79001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>24840171.397</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>65473355.58379001</v>
+        <v>65473768.30201</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>41516689.59198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>41552142.30736</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>56524533.626</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>55215.82003</v>
@@ -1778,7 +1789,7 @@
         <v>15423.1078</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>169093.2656</v>
+        <v>172622.89572</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>24880.52289</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>358737.65896</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>216647.1</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>62660.05581000001</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>3963412.81791</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>876251.139</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>221886.89111</v>
@@ -1853,37 +1874,42 @@
         <v>260414.09625</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>387038.18488</v>
+        <v>391056.63664</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>389259.3120099999</v>
+        <v>402396.9841</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>310633.33793</v>
+        <v>324496.87985</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>334626.33393</v>
+        <v>399089.67311</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>409829.17758</v>
+        <v>472849.79061</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>442464.44984</v>
+        <v>446669.79945</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>782054.8039299999</v>
+        <v>782054.8039300001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1784352.48251</v>
+        <v>1784379.96767</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1470119.99087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1471604.13574</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1653712.43</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5621.89496</v>
@@ -1892,19 +1918,19 @@
         <v>35218.92718999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>46192.38421</v>
+        <v>46522.05356</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>13619.09024</v>
+        <v>13850.37194</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>16121.31416</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>9933.629210000001</v>
+        <v>9933.629209999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6553.4094</v>
+        <v>6559.74379</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>12122.57608</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>24333.10292</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>30183.664</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>67341.28864999999</v>
+        <v>67341.28865</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>37474.47044</v>
@@ -1934,19 +1965,19 @@
         <v>23380.19618</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>13208.51587</v>
+        <v>13931.66816</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>17328.22729</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>17545.90721</v>
+        <v>18199.33634000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>28125.44066</v>
+        <v>28272.19154</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>76207.56691000001</v>
+        <v>76207.56690999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>27780.10265</v>
@@ -1955,37 +1986,42 @@
         <v>34964.13904</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>48259.21186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>48389.80175</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>45836.673</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5792.047170000001</v>
+        <v>5792.04717</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>849.0952699999999</v>
+        <v>849.09527</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>19231.02307</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>11729.67087</v>
+        <v>11761.84413</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>2820.45701</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>414.71053</v>
+        <v>414.7105299999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>928.5954</v>
+        <v>5038.034050000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>40617.15765000001</v>
+        <v>40623.17799</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>55597.67481999999</v>
@@ -1994,13 +2030,18 @@
         <v>62336.38594</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>80559.16267000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>80560.15871</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>38178.548</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1995024.10767</v>
@@ -2009,37 +2050,42 @@
         <v>2586801.71085</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3371159.68138</v>
+        <v>3616103.14771</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2926587.35951</v>
+        <v>3140853.47186</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4067742.01054</v>
+        <v>4071371.797</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5669047.52144</v>
+        <v>6873537.3669</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>11181553.4578</v>
+        <v>12441747.87833</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>13573224.22362</v>
+        <v>13609079.9593</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>21693179.63718</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>60402146.96031</v>
+        <v>60402457.95107999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>34615266.93216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>34647363.24339</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>52150890.079</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>4499.723099999999</v>
@@ -2048,10 +2094,10 @@
         <v>1015.78036</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>3076.80282</v>
+        <v>3087.49179</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>4014.8177</v>
+        <v>4046.74032</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>9018.553280000002</v>
@@ -2072,13 +2118,18 @@
         <v>26144.67389</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>24096.44463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>25716.09278</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>40104.04</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>88438.97387</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>343752.25961</v>
@@ -2126,37 +2182,42 @@
         <v>279583.90159</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>170011.58302</v>
+        <v>175418.29867</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>229517.2806</v>
+        <v>238664.00038</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>308263.40583</v>
+        <v>308263.4058300001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>279330.05295</v>
+        <v>314001.4763</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>231403.1836</v>
+        <v>245111.00016</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>329909.3798</v>
+        <v>329910.61372</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>227199.41757</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>465388.76461</v>
+        <v>465463.0069</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>931904.27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>932025.2952000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1472729.953</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1479533.35555</v>
@@ -2165,43 +2226,48 @@
         <v>2037572.66779</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2593208.02774</v>
+        <v>2979397.78515</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1987442.14584</v>
+        <v>2121323.01933</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4429424.03769</v>
+        <v>4434807.811259999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4715383.80722</v>
+        <v>5627276.47884</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10663529.46387</v>
+        <v>11208948.49294</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12073902.53524</v>
+        <v>12092165.76042</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>19779775.74069</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>48368504.07568</v>
+        <v>48368508.36516</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>30250832.77959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>30279771.06589</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>46119440.653</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>22701.80559</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>37008.3123</v>
+        <v>37008.31230000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>14700.74025</v>
@@ -2210,13 +2276,13 @@
         <v>15337.41239</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>13435.10663</v>
+        <v>13437.66897</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6173.542329999999</v>
+        <v>14353.78982</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14951.82478</v>
+        <v>15118.75482</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>13862.85414</v>
@@ -2225,16 +2291,21 @@
         <v>20707.14838</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>62356.40768</v>
+        <v>62356.41018</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>75743.69554</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>75765.41637000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>67579.13400000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>53692.29644</v>
@@ -2243,19 +2314,19 @@
         <v>24983.02399</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>25074.84518</v>
+        <v>27648.53257</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>27274.81123</v>
+        <v>32619.04744</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>50864.37848000001</v>
+        <v>50901.27493</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>58781.43242</v>
+        <v>59830.82283</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>227417.65904</v>
+        <v>228082.47846</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>86999.69450999999</v>
@@ -2267,13 +2338,18 @@
         <v>136257.70116</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>118445.18027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>120054.59003</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>112741.627</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>18151.47068</v>
@@ -2285,16 +2361,16 @@
         <v>111.08977</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>102.50638</v>
+        <v>104.58123</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>148.93124</v>
+        <v>2522.13124</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>300.83054</v>
+        <v>1671.42726</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>8883.61714</v>
+        <v>12712.91578</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>27453.06024</v>
@@ -2306,13 +2382,18 @@
         <v>28977.32097</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>36061.46689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>36063.73063</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>5254.394</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1245019.78063</v>
@@ -2321,37 +2402,42 @@
         <v>1810307.56937</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2435687.72016</v>
+        <v>2818196.69623</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1802077.65218</v>
+        <v>1929673.4958</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4042864.8453</v>
+        <v>4045834.49217</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4545084.1768</v>
+        <v>5411136.84949</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>10277119.27431</v>
+        <v>10814553.18438</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11583169.73196</v>
+        <v>11601384.50554</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>19451050.66695001</v>
+        <v>19451050.66695</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>47836170.51307</v>
+        <v>47836174.78405</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>29626044.81916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>29651918.81557</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>45268170.017</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3087.33598</v>
@@ -2360,10 +2446,10 @@
         <v>2470.57573</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>3790.68036</v>
+        <v>3824.15611</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>3269.13036</v>
+        <v>3272.71194</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>9409.21076</v>
@@ -2384,13 +2470,18 @@
         <v>31204.1739</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>21460.16207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>22674.08052</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>30145.751</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1837.84083</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>136880.66623</v>
@@ -2438,37 +2534,42 @@
         <v>162714.48939</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>113842.16127</v>
+        <v>114915.77947</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>139378.706</v>
+        <v>140313.84323</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>312700.5295</v>
+        <v>312701.99741</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>90796.89271000003</v>
+        <v>126036.65702</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>115313.26022</v>
+        <v>118637.33112</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>337356.1444</v>
+        <v>337404.596</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>225387.80926</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>273537.9589</v>
+        <v>273537.9749</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>371239.61483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>371456.59194</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>635549.73</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1610850.13015</v>
@@ -2477,76 +2578,86 @@
         <v>1874221.67516</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3511550.77707</v>
+        <v>3528273.92763</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1732932.38899</v>
+        <v>1834647.89239</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3485127.17106</v>
+        <v>3534385.08124</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3228290.74579</v>
+        <v>3635806.07322</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4388602.17878</v>
+        <v>5960845.25743</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5518875.30005</v>
+        <v>5561246.48791</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5672707.435450001</v>
+        <v>5672707.43545</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>21315842.32390999</v>
+        <v>21315843.86575</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>10296060.19048</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>10307405.82057</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>16722251.814</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>983739.9728</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>963054.8988</v>
+        <v>963054.8988000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1609568.91231</v>
+        <v>1621569.70492</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>989968.8013099999</v>
+        <v>1087878.24517</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2053731.75766</v>
+        <v>2102989.66784</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2161561.68224</v>
+        <v>2292064.7093</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2825023.90914</v>
+        <v>3791062.60148</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3419961.85034</v>
+        <v>3430377.63649</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4004115.813730001</v>
+        <v>4004115.81373</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>13148529.22596</v>
+        <v>13148530.7678</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6850093.18893</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6861438.81902</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10365564.629</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>627110.15735</v>
@@ -2555,22 +2666,22 @@
         <v>911166.77636</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1901981.86476</v>
+        <v>1906704.22271</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>742963.58768</v>
+        <v>746769.6472199999</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>1431395.4134</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1066729.06355</v>
+        <v>1343741.36392</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1563578.26964</v>
+        <v>2169782.65595</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2098913.44971</v>
+        <v>2130868.85142</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1668591.62172</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>3445967.00155</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>6356687.185</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-1361431.82387</v>
@@ -2594,76 +2710,86 @@
         <v>459774.6319799999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1131354.82595</v>
+        <v>1158932.82284</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>693763.7128000001</v>
+        <v>701143.4406800001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>67936.06419</v>
+        <v>20707.71786</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2472060.49315</v>
+        <v>3594451.33017</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>181542.92216</v>
+        <v>-378417.90565</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4010650.07376</v>
+        <v>4025254.03086</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>12642352.43678</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>18311316.80211</v>
+        <v>18310369.91231</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>8371342.795359999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8373063.7834</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>14626136.826</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>82519.48503</v>
+        <v>82519.48502999998</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>153674.13432</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>137891.50917</v>
+        <v>139412.32891</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>194296.20874</v>
+        <v>197843.8438</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>145122.90979</v>
+        <v>170098.23956</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>313724.71481</v>
+        <v>318197.7026500001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>178186.53141</v>
+        <v>210685.21498</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>288799.58029</v>
+        <v>306406.08905</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>325492.14959</v>
+        <v>325492.1495899999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>242795.97513</v>
+        <v>242838.14125</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>321734.83922</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>322937.59447</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>318547.548</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2950.23357</v>
@@ -2672,10 +2798,10 @@
         <v>3273.78827</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>7057.26324</v>
+        <v>7057.29416</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>11594.57918</v>
+        <v>11859.25054</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>1804.6242</v>
@@ -2684,25 +2810,30 @@
         <v>10087.40394</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1255.76408</v>
+        <v>1415.92735</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4773.96896</v>
+        <v>4775.2903</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1496.61327</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5368.752250000001</v>
+        <v>5368.75225</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3040.86646</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3040.866459999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4200.797</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>79569.25146</v>
@@ -2711,37 +2842,42 @@
         <v>150400.34605</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>130834.24593</v>
+        <v>132355.03475</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>182701.62956</v>
+        <v>185984.59326</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>143318.28559</v>
+        <v>168293.61536</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>303637.31087</v>
+        <v>308110.29871</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>176930.7673299999</v>
+        <v>209269.28763</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>284025.61133</v>
+        <v>301630.79875</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>323995.53632</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>237427.22288</v>
+        <v>237469.389</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>318693.97276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>319896.7280100001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>314346.751</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>245446.51043</v>
@@ -2750,37 +2886,42 @@
         <v>215531.15838</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>322240.94485</v>
+        <v>322518.76294</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>212920.64709</v>
+        <v>222037.2391</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>307568.19063</v>
+        <v>309632.49288</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>385259.27881</v>
+        <v>385488.5460499999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>767490.1370099999</v>
+        <v>772264.70222</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>432968.57888</v>
+        <v>434593.8252</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>359217.39186</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>401648.60843</v>
+        <v>401809.10326</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>704197.3168500001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>707780.57463</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>418713.642</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>166256.36281</v>
@@ -2792,7 +2933,7 @@
         <v>167693.83951</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>106195.96513</v>
+        <v>112135.1157</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>172130.56313</v>
@@ -2801,25 +2942,30 @@
         <v>135727.14867</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>218646.47331</v>
+        <v>220856.84192</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>195187.53681</v>
+        <v>196124.6699</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>235704.75912</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>171587.28887</v>
+        <v>171588.98379</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>308983.38809</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>311237.37212</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>274602.187</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>9379.350930000001</v>
@@ -2828,37 +2974,42 @@
         <v>10672.03639</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>32639.78822</v>
+        <v>32916.06941</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>17980.88468</v>
+        <v>18437.84784</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>51242.34734</v>
+        <v>51242.34733999999</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>24437.99062</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>21367.90199</v>
+        <v>21727.46552</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>15877.32969</v>
+        <v>15995.43133</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>38229.96207000001</v>
+        <v>38229.96207</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>37293.30684999999</v>
+        <v>37442.8755</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>140103.32782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>140105.48404</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>20101.031</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>69810.79669</v>
@@ -2867,37 +3018,42 @@
         <v>70764.03562000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>121907.31712</v>
+        <v>121908.85402</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>88743.79728</v>
+        <v>91464.27556000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>84195.28016000001</v>
+        <v>86259.58241</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>225094.13952</v>
+        <v>225323.40676</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>527475.76171</v>
+        <v>529680.39478</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>221903.71238</v>
+        <v>222473.72397</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>85282.67066999999</v>
+        <v>85282.67067000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>192768.01271</v>
+        <v>192777.24397</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>255110.60094</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>256437.71847</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>124010.424</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-1524358.84927</v>
@@ -2906,37 +3062,42 @@
         <v>397917.60792</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>947005.39027</v>
+        <v>975826.3888099999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>675139.2744499999</v>
+        <v>676950.0453800001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-94509.21665000002</v>
+        <v>-118826.53546</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2400525.92915</v>
+        <v>3527160.486769999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-407760.6834399999</v>
+        <v>-939997.39289</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3866481.07517</v>
+        <v>3897066.29471</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>12608627.19451</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>18152464.16881</v>
+        <v>18151398.9503</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>7988880.317729999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>7988220.803239999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>14525970.732</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>65946.65685</v>
@@ -2945,19 +3106,19 @@
         <v>70035.42362999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>297037.19619</v>
+        <v>305637.72869</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>149681.08048</v>
+        <v>158726.93525</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>288183.03117</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>312740.8124400001</v>
+        <v>385201.47686</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>353985.57582</v>
+        <v>372409.75352</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>512411.74142</v>
@@ -2966,16 +3127,21 @@
         <v>1286324.60689</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3302776.10136</v>
+        <v>3302847.29556</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1697834.47538</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1699564.53615</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2947456.775</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-1590305.50612</v>
@@ -2984,34 +3150,37 @@
         <v>327882.18429</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>649968.19408</v>
+        <v>670188.66012</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>525458.19397</v>
+        <v>518223.11013</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-382692.24782</v>
+        <v>-407009.56663</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2087785.11671</v>
+        <v>3141959.00991</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-761746.25926</v>
+        <v>-1312407.14641</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3354069.333750001</v>
+        <v>3384654.55329</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>11322302.58762</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>14849688.06745</v>
+        <v>14848551.65474</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6291045.84235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6288656.26709</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11578513.957</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>498</v>
@@ -3038,34 +3210,37 @@
         <v>503</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>776</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>739</v>
+        <v>847</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>898</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>